--- a/total_pres.xlsx
+++ b/total_pres.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\COVID-19 impact on antibiotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DB2601-DFF1-490B-9F33-CF069508C773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D75C60F-F0AC-483A-A70D-3B5F1C521D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{116B36D7-69D3-44F7-AF26-2B5D65650E9E}"/>
+    <workbookView xWindow="4050" yWindow="2170" windowWidth="19200" windowHeight="11170" xr2:uid="{116B36D7-69D3-44F7-AF26-2B5D65650E9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Time</t>
   </si>
@@ -42,13 +42,12 @@
     <t>Post.intervention.2.time</t>
   </si>
   <si>
-    <t>quantity.x</t>
+    <t>quantity.x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>quantity.x2</t>
-  </si>
-  <si>
-    <t>category_pres</t>
+    <t>quantity.x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -419,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E04B3D-4C24-49A2-A6D6-9AA1F106A761}">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -430,7 +429,7 @@
     <col min="6" max="6" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,17 +445,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
+      <c r="F1" t="s">
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -476,14 +472,11 @@
         <v>11627634</v>
       </c>
       <c r="G2">
-        <v>8607208</v>
-      </c>
-      <c r="H2">
-        <f>LN(G2)</f>
-        <v>15.968110549715815</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+        <f>LN(F2)</f>
+        <v>16.26889506441734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -502,15 +495,12 @@
       <c r="F3" s="3">
         <v>7999105</v>
       </c>
-      <c r="G3">
-        <v>6058913</v>
-      </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H66" si="0">LN(G3)</f>
-        <v>15.617040969018953</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G66" si="0">LN(F3)</f>
+        <v>15.894840218385635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -530,14 +520,11 @@
         <v>9232397</v>
       </c>
       <c r="G4">
-        <v>6766457</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>15.727488169642179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.038229269405086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -557,14 +544,11 @@
         <v>10442884</v>
       </c>
       <c r="G5">
-        <v>7609886</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>15.84495874943657</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.161431347480811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -584,14 +568,11 @@
         <v>9999400</v>
       </c>
       <c r="G6">
-        <v>7360906</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>15.811693580955231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.118035649158248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -611,14 +592,11 @@
         <v>8470690</v>
       </c>
       <c r="G7">
-        <v>6227486</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>15.644483278022811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.952122527300782</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -638,14 +616,11 @@
         <v>7901342</v>
       </c>
       <c r="G8">
-        <v>5848508</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>15.581697143944067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.882543176428117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -665,14 +640,11 @@
         <v>7518820</v>
       </c>
       <c r="G9">
-        <v>5628211</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>15.543302187629491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.832919768719975</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -692,14 +664,11 @@
         <v>8366880</v>
       </c>
       <c r="G10">
-        <v>6278042</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>15.65256870639033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.939791613116801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -719,14 +688,11 @@
         <v>9851046</v>
       </c>
       <c r="G11">
-        <v>7227859</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>15.793453423033037</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.103088200403608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -746,14 +712,11 @@
         <v>11017625</v>
       </c>
       <c r="G12">
-        <v>7984777</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>15.893047411877467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.215006821220484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -773,14 +736,11 @@
         <v>12195103</v>
       </c>
       <c r="G13">
-        <v>8911285</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>16.002829009025845</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.316545035680949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -800,14 +760,11 @@
         <v>9515022</v>
       </c>
       <c r="G14">
-        <v>7056703</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>15.769488503225148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.068382370848443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -827,14 +784,11 @@
         <v>7356711</v>
       </c>
       <c r="G15">
-        <v>5587291</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>15.53600511228268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.811123515826669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -854,14 +808,11 @@
         <v>9148550</v>
       </c>
       <c r="G16">
-        <v>6760579</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>15.726619095238894</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.029105954748662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -881,14 +832,11 @@
         <v>10852454</v>
       </c>
       <c r="G17">
-        <v>7949597</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>15.888631793521741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.199901787492216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -908,14 +856,11 @@
         <v>10287521</v>
       </c>
       <c r="G18">
-        <v>7521905</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>15.833329988312883</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.146442165277652</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -935,14 +880,11 @@
         <v>8210915</v>
       </c>
       <c r="G19">
-        <v>6069561</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>15.618796837520748</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.920974924670469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -962,14 +904,11 @@
         <v>8263288</v>
       </c>
       <c r="G20">
-        <v>6124483</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>15.627804902669229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.927333129245117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -989,14 +928,11 @@
         <v>7718984</v>
       </c>
       <c r="G21">
-        <v>5795234</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>15.572546413578372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.859193307122483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1016,14 +952,11 @@
         <v>8637672</v>
       </c>
       <c r="G22">
-        <v>6502319</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>15.687669440469625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.971643660029118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1043,14 +976,11 @@
         <v>10129378</v>
       </c>
       <c r="G23">
-        <v>7456943</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>15.824656102672124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.130950472562798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1070,14 +1000,11 @@
         <v>10719916</v>
       </c>
       <c r="G24">
-        <v>7830085</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>15.873483923591333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.187613877755336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1097,14 +1024,11 @@
         <v>11608135</v>
       </c>
       <c r="G25">
-        <v>8536832</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>15.959900536754647</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.267216703388939</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1124,14 +1048,11 @@
         <v>10567454</v>
       </c>
       <c r="G26">
-        <v>8003226</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>15.89535526836068</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.1732894584446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1151,14 +1072,11 @@
         <v>7510675</v>
       </c>
       <c r="G27" s="2">
-        <v>5546480</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="0"/>
-        <v>15.52867405027677</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.831835899861124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1178,14 +1096,11 @@
         <v>5607967</v>
       </c>
       <c r="G28">
-        <v>4133862</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>15.234722636954041</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.539698823228465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1205,14 +1120,11 @@
         <v>5054528</v>
       </c>
       <c r="G29">
-        <v>3735056</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>15.133273369743216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.435795033179067</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1232,14 +1144,11 @@
         <v>5733555</v>
       </c>
       <c r="G30">
-        <v>4244861</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>15.261219632786293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.561846315158883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1259,14 +1168,11 @@
         <v>6127486</v>
       </c>
       <c r="G31">
-        <v>4536317</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>15.327626007309409</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.628295109600073</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1286,14 +1192,11 @@
         <v>6149059</v>
       </c>
       <c r="G32">
-        <v>4563936</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>15.333695967078754</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.631809619945681</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1313,14 +1216,11 @@
         <v>5735614</v>
       </c>
       <c r="G33">
-        <v>4325244</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>15.279979112941755</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.562205364715503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1340,14 +1240,11 @@
         <v>5705573</v>
       </c>
       <c r="G34">
-        <v>4237424</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="0"/>
-        <v>15.259466095406761</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.556953974446829</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1367,14 +1264,11 @@
         <v>5694765</v>
       </c>
       <c r="G35">
-        <v>4304274</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="0"/>
-        <v>15.275119040507473</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.555057889745125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1394,14 +1288,11 @@
         <v>6539860</v>
       </c>
       <c r="G36">
-        <v>4830950</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="0"/>
-        <v>15.390553693658932</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.693426316476426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1421,14 +1312,11 @@
         <v>5629644</v>
       </c>
       <c r="G37">
-        <v>4183351</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="0"/>
-        <v>15.246623157972611</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.543556765434543</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1448,14 +1336,11 @@
         <v>4660897</v>
       </c>
       <c r="G38">
-        <v>3527538</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="0"/>
-        <v>15.076110735152854</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.354718476848532</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1475,14 +1360,11 @@
         <v>4361844</v>
       </c>
       <c r="G39">
-        <v>3342588</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>15.022255915210772</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.288405461692905</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1502,14 +1384,11 @@
         <v>5927325</v>
       </c>
       <c r="G40">
-        <v>4408821</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="0"/>
-        <v>15.29911786474069</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.595083573078028</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1529,14 +1408,11 @@
         <v>6419747</v>
       </c>
       <c r="G41">
-        <v>4747291</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="0"/>
-        <v>15.373084697529441</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.674889266789936</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1556,14 +1432,11 @@
         <v>5847060</v>
       </c>
       <c r="G42">
-        <v>4373814</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="0"/>
-        <v>15.291145955309192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.58144952877781</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1583,14 +1456,11 @@
         <v>5699035</v>
       </c>
       <c r="G43">
-        <v>4315079</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="0"/>
-        <v>15.277626190559186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.555807420226598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1610,14 +1480,11 @@
         <v>5551357</v>
       </c>
       <c r="G44">
-        <v>4182412</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="0"/>
-        <v>15.246398671573953</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.529552960340768</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1637,14 +1504,11 @@
         <v>5026281</v>
       </c>
       <c r="G45">
-        <v>3851072</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="0"/>
-        <v>15.163862109064752</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.430190904794596</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1664,14 +1528,11 @@
         <v>5475749</v>
       </c>
       <c r="G46">
-        <v>4219669</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>15.255267246916972</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.51583962796304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1691,14 +1552,11 @@
         <v>6545642</v>
       </c>
       <c r="G47">
-        <v>4946328</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>15.414156041079799</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.694310042660762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1718,14 +1576,11 @@
         <v>7825709</v>
       </c>
       <c r="G48">
-        <v>5832234</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>15.578910675322497</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.872924897314675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1745,14 +1600,11 @@
         <v>6667536</v>
       </c>
       <c r="G49">
-        <v>4996384</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>15.424225008763104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.712760934348815</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1772,14 +1624,11 @@
         <v>6611253</v>
       </c>
       <c r="G50">
-        <v>4935243</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="0"/>
-        <v>15.411912469759045</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.704283755134202</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1799,14 +1648,11 @@
         <v>6471394</v>
       </c>
       <c r="G51" s="2">
-        <v>5007037</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="0"/>
-        <v>15.426354880939263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.682902099220325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1826,14 +1672,11 @@
         <v>9323259</v>
       </c>
       <c r="G52">
-        <v>7379437</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="0"/>
-        <v>15.814207906403761</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.04802280365022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1853,14 +1696,11 @@
         <v>7752398</v>
       </c>
       <c r="G53">
-        <v>5977716</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="0"/>
-        <v>15.603549113169901</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.863512772824071</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1880,14 +1720,11 @@
         <v>6887981</v>
       </c>
       <c r="G54">
-        <v>5211491</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="0"/>
-        <v>15.466376553210008</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.745288566665458</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1907,14 +1744,11 @@
         <v>6569508</v>
       </c>
       <c r="G55">
-        <v>5014036</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="0"/>
-        <v>15.42775173757089</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.69794950181196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1934,14 +1768,11 @@
         <v>7636591</v>
       </c>
       <c r="G56">
-        <v>5853870</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="0"/>
-        <v>15.582613538949465</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.84846185737551</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1961,14 +1792,11 @@
         <v>8034687</v>
       </c>
       <c r="G57">
-        <v>6290680</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="0"/>
-        <v>15.654579730941471</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.89927860182126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1988,14 +1816,11 @@
         <v>7748191</v>
       </c>
       <c r="G58">
-        <v>5985602</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="0"/>
-        <v>15.60486747671122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.862969954728154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2015,14 +1840,11 @@
         <v>8572832</v>
       </c>
       <c r="G59">
-        <v>6496049</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="0"/>
-        <v>15.68670470389865</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.964108691061556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2042,14 +1864,11 @@
         <v>9403843</v>
       </c>
       <c r="G60">
-        <v>7148746</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="0"/>
-        <v>15.782447514673125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.05662899347934</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2069,14 +1888,11 @@
         <v>10420461</v>
       </c>
       <c r="G61">
-        <v>7972349</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="0"/>
-        <v>15.891489737580367</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.159281835153465</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2096,14 +1912,11 @@
         <v>8441089</v>
       </c>
       <c r="G62">
-        <v>6619177</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="0"/>
-        <v>15.705481599943097</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.948621886684705</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2123,14 +1936,11 @@
         <v>7845440</v>
       </c>
       <c r="G63">
-        <v>5988768</v>
-      </c>
-      <c r="H63">
-        <f t="shared" si="0"/>
-        <v>15.605396272810518</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>15.875443029255885</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2150,14 +1960,11 @@
         <v>10242321</v>
       </c>
       <c r="G64">
-        <v>7711057</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="0"/>
-        <v>15.858165830825126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.142038812048355</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2177,14 +1984,11 @@
         <v>11889309</v>
       </c>
       <c r="G65">
-        <v>8865124</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="0"/>
-        <v>15.997635484984272</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.291150150914241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2204,14 +2008,11 @@
         <v>11538577</v>
       </c>
       <c r="G66">
-        <v>8757475</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="0"/>
-        <v>15.985418179353729</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>16.261206501215593</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2231,14 +2032,11 @@
         <v>9511338</v>
       </c>
       <c r="G67">
-        <v>7285934</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H73" si="1">LN(G67)</f>
-        <v>15.801456198041322</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+        <f t="shared" ref="G67:G73" si="1">LN(F67)</f>
+        <v>16.067995118631409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2258,14 +2056,11 @@
         <v>10476547</v>
       </c>
       <c r="G68">
-        <v>8006364</v>
-      </c>
-      <c r="H68">
         <f t="shared" si="1"/>
-        <v>15.895747283401688</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+        <v>16.164649697832324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2285,14 +2080,11 @@
         <v>9622686</v>
       </c>
       <c r="G69">
-        <v>7489610</v>
-      </c>
-      <c r="H69">
         <f t="shared" si="1"/>
-        <v>15.829027284711842</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+        <v>16.079633993649246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2312,14 +2104,11 @@
         <v>9312623</v>
       </c>
       <c r="G70">
-        <v>7154545</v>
-      </c>
-      <c r="H70">
         <f t="shared" si="1"/>
-        <v>15.783258377056857</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+        <v>16.046881349636418</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2339,14 +2128,11 @@
         <v>10500709</v>
       </c>
       <c r="G71">
-        <v>8107999</v>
-      </c>
-      <c r="H71">
         <f t="shared" si="1"/>
-        <v>15.908361663219042</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+        <v>16.166953336657645</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2366,14 +2152,11 @@
         <v>11979680</v>
       </c>
       <c r="G72">
-        <v>9151216</v>
-      </c>
-      <c r="H72">
         <f t="shared" si="1"/>
-        <v>16.029397324596655</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+        <v>16.298722439109518</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2393,11 +2176,8 @@
         <v>12906115</v>
       </c>
       <c r="G73">
-        <v>9884718</v>
-      </c>
-      <c r="H73">
         <f t="shared" si="1"/>
-        <v>16.106500486107084</v>
+        <v>16.373211788022449</v>
       </c>
     </row>
   </sheetData>
